--- a/tbx/replications/data_.xlsx
+++ b/tbx/replications/data_.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE45D303-2F68-48E7-AFB1-12370B384382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C5724-D888-497B-9E85-7C46AC4CB55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="946" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="3840" windowWidth="21600" windowHeight="11385" tabRatio="946" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="12" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="1611">
   <si>
     <t>1999q1</t>
   </si>
@@ -6932,7 +6932,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="37" t="s">
         <v>1331</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1356</v>
       </c>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="G2" s="56"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>1357</v>
       </c>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="G3" s="56"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>1358</v>
       </c>
@@ -7000,7 +7000,7 @@
       </c>
       <c r="G4" s="56"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>1359</v>
       </c>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="G5" s="56"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>1360</v>
       </c>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="G6" s="56"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>1361</v>
       </c>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="G7" s="56"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>1362</v>
       </c>
@@ -7072,7 +7072,7 @@
       </c>
       <c r="G8" s="56"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>1363</v>
       </c>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="G9" s="56"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>1364</v>
       </c>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="G10" s="56"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1365</v>
       </c>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="G11" s="56"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>1366</v>
       </c>
@@ -7144,7 +7144,7 @@
       </c>
       <c r="G12" s="56"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>1367</v>
       </c>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="G13" s="56"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>1368</v>
       </c>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="G14" s="56"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>1369</v>
       </c>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="G15" s="56"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>1370</v>
       </c>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="G16" s="56"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>1371</v>
       </c>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="G17" s="56"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>1372</v>
       </c>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="G18" s="56"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>1373</v>
       </c>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="G19" s="56"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>1374</v>
       </c>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="G20" s="56"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>1375</v>
       </c>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="G21" s="56"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>1376</v>
       </c>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="G22" s="56"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>1377</v>
       </c>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="G23" s="56"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>1378</v>
       </c>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="G24" s="56"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>1379</v>
       </c>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="G25" s="56"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>1380</v>
       </c>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="G26" s="56"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>1381</v>
       </c>
@@ -9957,7 +9957,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="37" t="s">
         <v>1331</v>
@@ -9972,7 +9972,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1212</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1213</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>2.5500000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1214</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1215</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1216</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1217</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1218</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1219</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>1220</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1221</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>3.7800000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1222</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1223</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>1224</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>1225</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>1226</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1227</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>1228</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>11.700000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>1229</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>1230</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>1231</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>1232</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>1233</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>1234</v>
       </c>
@@ -13886,14 +13886,14 @@
     <col min="1" max="16384" width="9.7109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81" t="s">
         <v>1586</v>
       </c>
       <c r="C2" s="82"/>
     </row>
-    <row r="3" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="67" t="s">
         <v>1587</v>
       </c>
@@ -13901,7 +13901,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="70" t="s">
         <v>1331</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="74" t="s">
         <v>1332</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="67" t="s">
         <v>1333</v>
       </c>
@@ -13950,8 +13950,8 @@
     <col min="1" max="16384" width="9.7109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81" t="s">
         <v>1594</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="74" t="s">
         <v>1587</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="70" t="s">
         <v>1331</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="74" t="s">
         <v>1332</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="67" t="s">
         <v>1333</v>
       </c>
@@ -14037,8 +14037,8 @@
     <col min="1" max="16384" width="9.7109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81" t="s">
         <v>1590</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="67" t="s">
         <v>1587</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="70" t="s">
         <v>1331</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="74" t="s">
         <v>1332</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="67" t="s">
         <v>1333</v>
       </c>
@@ -14128,8 +14128,8 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
         <v>1448</v>
@@ -14144,7 +14144,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
         <v>1331</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
         <v>1332</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
         <v>1333</v>
       </c>
@@ -14195,21 +14195,21 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="33"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E10" s="11"/>
     </row>
   </sheetData>
@@ -15074,8 +15074,8 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="43" t="s">
         <v>1331</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
         <v>1331</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
         <v>1332</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="5" spans="2:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="37" t="s">
         <v>1333</v>
       </c>
@@ -15161,8 +15161,8 @@
     <col min="7" max="16" width="118.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="37" t="s">
         <v>1333</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
         <v>64</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
         <v>65</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>67</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
         <v>1284</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>1285</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
         <v>1286</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>94.320000000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
         <v>1287</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>94.320000000000007</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
         <v>1288</v>
       </c>
@@ -15282,18 +15282,18 @@
         <v>94.320000000000007</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
     </row>
-    <row r="16" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
     </row>
-    <row r="17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15467,7 +15467,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="37" t="s">
         <v>1331</v>
       </c>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>1357</v>
       </c>
@@ -15733,7 +15733,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>1358</v>
       </c>
@@ -15751,7 +15751,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>1359</v>
       </c>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>1360</v>
       </c>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>1361</v>
       </c>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>1362</v>
       </c>
@@ -15823,7 +15823,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>1363</v>
       </c>
@@ -15841,7 +15841,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>1364</v>
       </c>
@@ -15859,7 +15859,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>1365</v>
       </c>
@@ -16021,7 +16021,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
         <v>1374</v>
       </c>
@@ -16039,7 +16039,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>1375</v>
       </c>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>1376</v>
       </c>
@@ -16075,7 +16075,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
         <v>1377</v>
       </c>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>1378</v>
       </c>
@@ -16111,7 +16111,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>1379</v>
       </c>
@@ -16129,7 +16129,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>1380</v>
       </c>
@@ -16147,7 +16147,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>1381</v>
       </c>
@@ -16165,7 +16165,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
         <v>1382</v>
       </c>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>1383</v>
       </c>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>1384</v>
       </c>
@@ -16219,7 +16219,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>1385</v>
       </c>
@@ -16237,7 +16237,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
         <v>1386</v>
       </c>
@@ -16255,7 +16255,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
         <v>1387</v>
       </c>
@@ -16273,7 +16273,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>1388</v>
       </c>
@@ -16291,7 +16291,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>1389</v>
       </c>
@@ -16309,7 +16309,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>1390</v>
       </c>
@@ -16327,7 +16327,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>1391</v>
       </c>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>1392</v>
       </c>
@@ -16363,7 +16363,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
         <v>1393</v>
       </c>
@@ -16381,7 +16381,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
         <v>1394</v>
       </c>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
         <v>1395</v>
       </c>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
         <v>1396</v>
       </c>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
         <v>1397</v>
       </c>
@@ -16453,7 +16453,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
         <v>1398</v>
       </c>
@@ -16471,7 +16471,7 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
         <v>1399</v>
       </c>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="39" t="s">
         <v>1400</v>
       </c>
@@ -16507,7 +16507,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="39" t="s">
         <v>1401</v>
       </c>
@@ -16525,7 +16525,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
         <v>1402</v>
       </c>
@@ -16543,7 +16543,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="39" t="s">
         <v>1403</v>
       </c>
@@ -16561,7 +16561,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
         <v>1404</v>
       </c>
@@ -16579,7 +16579,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="39" t="s">
         <v>1405</v>
       </c>
@@ -16597,7 +16597,7 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
         <v>1406</v>
       </c>
@@ -16615,7 +16615,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="39" t="s">
         <v>1407</v>
       </c>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="39" t="s">
         <v>1408</v>
       </c>
@@ -16651,7 +16651,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
         <v>1409</v>
       </c>
@@ -16669,7 +16669,7 @@
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
         <v>1410</v>
       </c>
@@ -16687,7 +16687,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="39" t="s">
         <v>1411</v>
       </c>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
         <v>1412</v>
       </c>
@@ -16723,7 +16723,7 @@
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
         <v>1413</v>
       </c>
@@ -16741,7 +16741,7 @@
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="39" t="s">
         <v>1414</v>
       </c>
@@ -16759,7 +16759,7 @@
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="39" t="s">
         <v>1415</v>
       </c>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="39" t="s">
         <v>1416</v>
       </c>
@@ -16795,7 +16795,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="39" t="s">
         <v>1417</v>
       </c>
@@ -16813,7 +16813,7 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="39" t="s">
         <v>1418</v>
       </c>
@@ -16831,7 +16831,7 @@
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
         <v>1419</v>
       </c>
@@ -16849,7 +16849,7 @@
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="39" t="s">
         <v>1420</v>
       </c>
@@ -16867,7 +16867,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="39" t="s">
         <v>1421</v>
       </c>
@@ -16885,7 +16885,7 @@
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
         <v>1422</v>
       </c>
@@ -16903,7 +16903,7 @@
       </c>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="39" t="s">
         <v>1423</v>
       </c>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
         <v>1424</v>
       </c>
@@ -16939,7 +16939,7 @@
       </c>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="39" t="s">
         <v>1425</v>
       </c>
@@ -16957,7 +16957,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="39" t="s">
         <v>1426</v>
       </c>
@@ -16975,7 +16975,7 @@
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="39" t="s">
         <v>1427</v>
       </c>
@@ -16993,7 +16993,7 @@
       </c>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="39" t="s">
         <v>1428</v>
       </c>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
         <v>1429</v>
       </c>
@@ -17029,7 +17029,7 @@
       </c>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
         <v>1430</v>
       </c>
@@ -17047,7 +17047,7 @@
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
         <v>1431</v>
       </c>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="39" t="s">
         <v>1432</v>
       </c>
@@ -17083,7 +17083,7 @@
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
         <v>1433</v>
       </c>
@@ -17101,7 +17101,7 @@
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="39" t="s">
         <v>1434</v>
       </c>
@@ -17119,7 +17119,7 @@
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
         <v>1435</v>
       </c>
@@ -17137,7 +17137,7 @@
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
         <v>1436</v>
       </c>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="39" t="s">
         <v>1437</v>
       </c>
@@ -17173,7 +17173,7 @@
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="39" t="s">
         <v>1438</v>
       </c>
@@ -17191,7 +17191,7 @@
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="39" t="s">
         <v>1439</v>
       </c>
@@ -17209,7 +17209,7 @@
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="39" t="s">
         <v>1440</v>
       </c>
@@ -17227,7 +17227,7 @@
       </c>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="39" t="s">
         <v>1441</v>
       </c>
@@ -17245,7 +17245,7 @@
       </c>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="39" t="s">
         <v>1442</v>
       </c>
@@ -17263,7 +17263,7 @@
       </c>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="39" t="s">
         <v>1443</v>
       </c>
@@ -17281,7 +17281,7 @@
       </c>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="39" t="s">
         <v>1444</v>
       </c>
@@ -17299,7 +17299,7 @@
       </c>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="39" t="s">
         <v>1445</v>
       </c>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="39" t="s">
         <v>1334</v>
       </c>
@@ -17335,7 +17335,7 @@
       </c>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="39" t="s">
         <v>1335</v>
       </c>
@@ -17353,7 +17353,7 @@
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="39" t="s">
         <v>1336</v>
       </c>
@@ -17371,7 +17371,7 @@
       </c>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="39" t="s">
         <v>1337</v>
       </c>
@@ -17389,7 +17389,7 @@
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="39" t="s">
         <v>1338</v>
       </c>
@@ -17407,7 +17407,7 @@
       </c>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="39" t="s">
         <v>1339</v>
       </c>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="39" t="s">
         <v>1340</v>
       </c>
@@ -17443,7 +17443,7 @@
       </c>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="39" t="s">
         <v>1341</v>
       </c>
@@ -17461,7 +17461,7 @@
       </c>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="39" t="s">
         <v>1342</v>
       </c>
@@ -17479,7 +17479,7 @@
       </c>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="39" t="s">
         <v>1343</v>
       </c>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="39" t="s">
         <v>0</v>
       </c>
@@ -17515,7 +17515,7 @@
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="39" t="s">
         <v>1</v>
       </c>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="39" t="s">
         <v>2</v>
       </c>
@@ -17551,7 +17551,7 @@
       </c>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="39" t="s">
         <v>3</v>
       </c>
@@ -17569,7 +17569,7 @@
       </c>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="39" t="s">
         <v>4</v>
       </c>
@@ -17587,7 +17587,7 @@
       </c>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="39" t="s">
         <v>5</v>
       </c>
@@ -17605,7 +17605,7 @@
       </c>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="39" t="s">
         <v>6</v>
       </c>
@@ -17623,7 +17623,7 @@
       </c>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="39" t="s">
         <v>7</v>
       </c>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="39" t="s">
         <v>8</v>
       </c>
@@ -17659,7 +17659,7 @@
       </c>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="39" t="s">
         <v>9</v>
       </c>
@@ -17677,7 +17677,7 @@
       </c>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="39" t="s">
         <v>10</v>
       </c>
@@ -17695,7 +17695,7 @@
       </c>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="39" t="s">
         <v>11</v>
       </c>
@@ -17713,7 +17713,7 @@
       </c>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="39" t="s">
         <v>12</v>
       </c>
@@ -17731,7 +17731,7 @@
       </c>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="39" t="s">
         <v>13</v>
       </c>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="39" t="s">
         <v>14</v>
       </c>
@@ -17767,7 +17767,7 @@
       </c>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="39" t="s">
         <v>15</v>
       </c>
@@ -17785,7 +17785,7 @@
       </c>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="39" t="s">
         <v>16</v>
       </c>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="39" t="s">
         <v>17</v>
       </c>
@@ -17821,7 +17821,7 @@
       </c>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="39" t="s">
         <v>18</v>
       </c>
@@ -17839,7 +17839,7 @@
       </c>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="39" t="s">
         <v>19</v>
       </c>
@@ -17857,7 +17857,7 @@
       </c>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="39" t="s">
         <v>20</v>
       </c>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="39" t="s">
         <v>21</v>
       </c>
@@ -17893,7 +17893,7 @@
       </c>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="39" t="s">
         <v>22</v>
       </c>
@@ -17911,7 +17911,7 @@
       </c>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="39" t="s">
         <v>23</v>
       </c>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="39" t="s">
         <v>24</v>
       </c>
@@ -17947,7 +17947,7 @@
       </c>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="39" t="s">
         <v>25</v>
       </c>
@@ -17965,7 +17965,7 @@
       </c>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
         <v>26</v>
       </c>
@@ -17983,7 +17983,7 @@
       </c>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="39" t="s">
         <v>27</v>
       </c>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="39" t="s">
         <v>28</v>
       </c>
@@ -18019,7 +18019,7 @@
       </c>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="39" t="s">
         <v>29</v>
       </c>
@@ -18037,7 +18037,7 @@
       </c>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="39" t="s">
         <v>30</v>
       </c>
@@ -18055,7 +18055,7 @@
       </c>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="39" t="s">
         <v>31</v>
       </c>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="39" t="s">
         <v>32</v>
       </c>
@@ -18091,7 +18091,7 @@
       </c>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="39" t="s">
         <v>33</v>
       </c>
@@ -18109,7 +18109,7 @@
       </c>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="39" t="s">
         <v>34</v>
       </c>
@@ -18127,7 +18127,7 @@
       </c>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="39" t="s">
         <v>35</v>
       </c>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="39" t="s">
         <v>36</v>
       </c>
@@ -18163,7 +18163,7 @@
       </c>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="39" t="s">
         <v>37</v>
       </c>
@@ -18181,7 +18181,7 @@
       </c>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="39" t="s">
         <v>38</v>
       </c>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="39" t="s">
         <v>39</v>
       </c>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="39" t="s">
         <v>40</v>
       </c>
@@ -18235,7 +18235,7 @@
       </c>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="39" t="s">
         <v>41</v>
       </c>
@@ -18253,7 +18253,7 @@
       </c>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="39" t="s">
         <v>42</v>
       </c>
@@ -18271,7 +18271,7 @@
       </c>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="39" t="s">
         <v>43</v>
       </c>
@@ -18289,7 +18289,7 @@
       </c>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="39" t="s">
         <v>44</v>
       </c>
@@ -18307,7 +18307,7 @@
       </c>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="39" t="s">
         <v>45</v>
       </c>
@@ -18325,7 +18325,7 @@
       </c>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="39" t="s">
         <v>46</v>
       </c>
@@ -18343,7 +18343,7 @@
       </c>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="39" t="s">
         <v>47</v>
       </c>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="39" t="s">
         <v>48</v>
       </c>
@@ -18379,7 +18379,7 @@
       </c>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="39" t="s">
         <v>49</v>
       </c>
@@ -18397,7 +18397,7 @@
       </c>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="39" t="s">
         <v>50</v>
       </c>
@@ -18415,7 +18415,7 @@
       </c>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="39" t="s">
         <v>51</v>
       </c>
@@ -18433,7 +18433,7 @@
       </c>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="39" t="s">
         <v>52</v>
       </c>
@@ -18451,7 +18451,7 @@
       </c>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="39" t="s">
         <v>53</v>
       </c>
@@ -18469,7 +18469,7 @@
       </c>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="39" t="s">
         <v>54</v>
       </c>
@@ -18487,7 +18487,7 @@
       </c>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="39" t="s">
         <v>55</v>
       </c>
@@ -18505,7 +18505,7 @@
       </c>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="39" t="s">
         <v>56</v>
       </c>
@@ -18761,7 +18761,7 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B1:I11"/>
+  <dimension ref="B1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -18896,7 +18896,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -18906,7 +18906,6 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="2:9" ht="14.45" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18920,7 +18919,7 @@
   </sheetPr>
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
@@ -19087,30 +19086,27 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B1:O6"/>
+  <dimension ref="B2:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>1582</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>1583</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>1584</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
@@ -19166,76 +19162,70 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="E1:H6"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E1" s="10" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>1582</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="C2" s="1" t="str">
         <f>'sign res values'!E2</f>
         <v>Money</v>
       </c>
-      <c r="G1" s="1">
+      <c r="D2" s="1">
         <f>'sign res values'!F1</f>
         <v>0</v>
       </c>
-      <c r="H1" s="1">
+      <c r="E2" s="1">
         <f>'sign res values'!G1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="10"/>
-      <c r="F3" s="37" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="37" t="s">
         <v>1331</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>1332</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="10" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>1331</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="C4" s="33" t="s">
         <v>1462</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>1462</v>
       </c>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="10" t="s">
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>1332</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E6" s="10" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>1333</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19247,32 +19237,35 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B1:P6"/>
+  <dimension ref="B2:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>1582</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>1583</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>1584</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="37" t="s">
         <v>1331</v>
@@ -19283,8 +19276,11 @@
       <c r="E3" s="37" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>1331</v>
       </c>
@@ -19292,30 +19288,21 @@
       <c r="D4" s="50"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>1332</v>
       </c>
       <c r="C5" s="63"/>
       <c r="D5" s="63"/>
       <c r="E5" s="63"/>
-      <c r="O5" t="s">
-        <v>1606</v>
-      </c>
-      <c r="P5" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>1333</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
-      <c r="O6" t="s">
-        <v>1607</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19327,72 +19314,63 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="C1:F6"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C1" s="10" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>1582</v>
       </c>
-      <c r="D1" s="1" t="str">
-        <f>'sign res values'!C2</f>
-        <v>Demand</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <f>'sign res values'!D2</f>
-        <v xml:space="preserve">Supply </v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <f>'sign res values'!E2</f>
-        <v>Money</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="37" t="s">
+        <v>1331</v>
+      </c>
       <c r="D3" s="37" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>1331</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
-        <v>1331</v>
-      </c>
+      <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>1332</v>
       </c>
+      <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="10" t="s">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>1333</v>
       </c>
+      <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19443,7 +19421,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="37" t="s">
         <v>1331</v>
       </c>
@@ -19457,7 +19435,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
         <v>60</v>
       </c>
@@ -19468,7 +19446,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
         <v>61</v>
       </c>
@@ -19479,7 +19457,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>62</v>
       </c>
@@ -19490,7 +19468,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
         <v>63</v>
       </c>
@@ -19498,7 +19476,7 @@
         <v>9.6920000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>64</v>
       </c>
@@ -19509,7 +19487,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
         <v>65</v>
       </c>
@@ -19520,7 +19498,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
         <v>67</v>
       </c>
@@ -19531,7 +19509,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
         <v>1284</v>
       </c>
@@ -19542,7 +19520,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
         <v>1285</v>
       </c>
@@ -19551,7 +19529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>1286</v>
       </c>
@@ -19560,7 +19538,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
         <v>1287</v>
       </c>
@@ -19569,7 +19547,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>1288</v>
       </c>
@@ -19578,51 +19556,51 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="2:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
     </row>
-    <row r="18" spans="2:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="39"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="39"/>
       <c r="C20" s="33"/>
     </row>
-    <row r="21" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -19675,7 +19653,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
         <v>60</v>
       </c>
@@ -19688,7 +19666,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
         <v>61</v>
       </c>
@@ -19701,7 +19679,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>62</v>
       </c>
@@ -19714,7 +19692,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
         <v>63</v>
       </c>
@@ -19727,7 +19705,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>64</v>
       </c>
@@ -19739,7 +19717,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
         <v>65</v>
       </c>
@@ -19751,7 +19729,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
         <v>67</v>
       </c>
@@ -19763,7 +19741,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
         <v>1284</v>
       </c>
@@ -19775,7 +19753,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
         <v>1285</v>
       </c>
@@ -19785,7 +19763,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>1286</v>
       </c>
@@ -19795,7 +19773,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
         <v>1287</v>
       </c>
@@ -19805,7 +19783,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>1288</v>
       </c>
@@ -19815,39 +19793,39 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="2:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
     </row>
-    <row r="18" spans="2:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="39"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="39"/>
       <c r="C20" s="33"/>
     </row>
-    <row r="21" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -19887,7 +19865,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="37" t="s">
         <v>1331</v>
       </c>
@@ -20099,7 +20077,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>1355</v>
       </c>
@@ -20117,7 +20095,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>1356</v>
       </c>
@@ -20135,7 +20113,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>1357</v>
       </c>
@@ -20153,7 +20131,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>1358</v>
       </c>
@@ -20171,7 +20149,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>1359</v>
       </c>
@@ -20189,7 +20167,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>1360</v>
       </c>
@@ -20207,7 +20185,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>1361</v>
       </c>
@@ -20225,7 +20203,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>1362</v>
       </c>
@@ -20243,7 +20221,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>1363</v>
       </c>
@@ -20261,7 +20239,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>1364</v>
       </c>
@@ -20279,7 +20257,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>1365</v>
       </c>
@@ -23128,7 +23106,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
         <v>60</v>
       </c>
@@ -23138,7 +23116,7 @@
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
     </row>
-    <row r="4" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
         <v>61</v>
       </c>
@@ -23148,7 +23126,7 @@
       <c r="D4" s="63"/>
       <c r="E4" s="63"/>
     </row>
-    <row r="5" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>62</v>
       </c>
@@ -23158,7 +23136,7 @@
       <c r="D5" s="63"/>
       <c r="E5" s="63"/>
     </row>
-    <row r="6" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
         <v>63</v>
       </c>
@@ -23168,7 +23146,7 @@
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
     </row>
-    <row r="7" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>64</v>
       </c>
@@ -23180,7 +23158,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
         <v>65</v>
       </c>
@@ -23192,7 +23170,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
         <v>67</v>
       </c>
@@ -23204,7 +23182,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
         <v>1284</v>
       </c>
@@ -23216,7 +23194,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
         <v>1285</v>
       </c>
@@ -23226,7 +23204,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>1286</v>
       </c>
@@ -23236,7 +23214,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
         <v>1287</v>
       </c>
@@ -23246,7 +23224,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>1288</v>
       </c>
@@ -23256,39 +23234,39 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="2:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
     </row>
-    <row r="18" spans="2:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="39"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="39"/>
       <c r="C20" s="33"/>
     </row>
-    <row r="21" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -23345,8 +23323,8 @@
     <col min="17" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="37" t="s">
         <v>1331</v>
       </c>
@@ -23360,7 +23338,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
         <v>60</v>
       </c>
@@ -23369,7 +23347,7 @@
       <c r="E3" s="37"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
         <v>61</v>
       </c>
@@ -23378,7 +23356,7 @@
       <c r="E4" s="37"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>62</v>
       </c>
@@ -23387,7 +23365,7 @@
       <c r="E5" s="37"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
         <v>63</v>
       </c>
@@ -23396,7 +23374,7 @@
       <c r="E6" s="37"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>64</v>
       </c>
@@ -23407,7 +23385,7 @@
       </c>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
         <v>65</v>
       </c>
@@ -23416,7 +23394,7 @@
       </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
         <v>67</v>
       </c>
@@ -23425,7 +23403,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
         <v>1284</v>
       </c>
@@ -23434,7 +23412,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
         <v>1285</v>
       </c>
@@ -23445,7 +23423,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>1286</v>
       </c>
@@ -23456,7 +23434,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
         <v>1287</v>
       </c>
@@ -23468,7 +23446,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>1288</v>
       </c>
@@ -23478,12 +23456,12 @@
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23509,7 +23487,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="36" t="s">
         <v>1448</v>
       </c>
@@ -23517,7 +23495,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>64</v>
       </c>
@@ -23528,7 +23506,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>65</v>
       </c>
@@ -23539,7 +23517,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
@@ -23550,7 +23528,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>1284</v>
       </c>
@@ -23561,7 +23539,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>1285</v>
       </c>
@@ -23572,7 +23550,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
         <v>1286</v>
       </c>
@@ -23580,7 +23558,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>1287</v>
       </c>
@@ -23588,7 +23566,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
         <v>1288</v>
       </c>
@@ -23596,7 +23574,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
         <v>1289</v>
       </c>
@@ -23604,7 +23582,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>1290</v>
       </c>
@@ -23612,7 +23590,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>1291</v>
       </c>
@@ -23620,7 +23598,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
         <v>1292</v>
       </c>
@@ -23628,10 +23606,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23872,7 +23850,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>1286</v>
       </c>
@@ -23890,7 +23868,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>1287</v>
       </c>
@@ -23908,7 +23886,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>1288</v>
       </c>
@@ -23926,7 +23904,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>1289</v>
       </c>
@@ -23944,7 +23922,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>1290</v>
       </c>
@@ -23962,7 +23940,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
         <v>1291</v>
       </c>
@@ -23980,7 +23958,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="2:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
         <v>1292</v>
       </c>
@@ -24239,7 +24217,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>1286</v>
       </c>
@@ -24257,7 +24235,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>1287</v>
       </c>
@@ -24275,7 +24253,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>1288</v>
       </c>
@@ -24293,7 +24271,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>1289</v>
       </c>
@@ -24311,7 +24289,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>1290</v>
       </c>
@@ -24329,7 +24307,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
         <v>1291</v>
       </c>
@@ -24347,7 +24325,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="2:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
         <v>1292</v>
       </c>
@@ -24604,7 +24582,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>1286</v>
       </c>
@@ -24622,7 +24600,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>1287</v>
       </c>
@@ -24640,7 +24618,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>1288</v>
       </c>
@@ -24658,7 +24636,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>1289</v>
       </c>
@@ -24676,7 +24654,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>1290</v>
       </c>
@@ -24694,7 +24672,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
         <v>1291</v>
       </c>
@@ -24712,7 +24690,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="2:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
         <v>1292</v>
       </c>
@@ -24743,12 +24721,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -24771,7 +24749,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="37" t="s">
         <v>1331</v>
       </c>
@@ -24983,7 +24961,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>1355</v>
       </c>
@@ -25001,7 +24979,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>1356</v>
       </c>
@@ -25019,7 +24997,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>1357</v>
       </c>
@@ -25037,7 +25015,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>1358</v>
       </c>
@@ -25055,7 +25033,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>1359</v>
       </c>
@@ -25073,7 +25051,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>1360</v>
       </c>
@@ -25091,7 +25069,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>1361</v>
       </c>
@@ -25109,7 +25087,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>1362</v>
       </c>
@@ -25127,7 +25105,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>1363</v>
       </c>
@@ -25145,7 +25123,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>1364</v>
       </c>
@@ -25163,7 +25141,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>1365</v>
       </c>
@@ -28191,7 +28169,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>97</v>
       </c>
@@ -28208,7 +28186,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>98</v>
       </c>
@@ -28225,7 +28203,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>99</v>
       </c>
@@ -28242,7 +28220,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>100</v>
       </c>
@@ -28259,7 +28237,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>101</v>
       </c>
@@ -28276,7 +28254,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>102</v>
       </c>
@@ -28293,7 +28271,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>103</v>
       </c>
@@ -28310,7 +28288,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>104</v>
       </c>
@@ -28327,7 +28305,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>105</v>
       </c>
@@ -28344,7 +28322,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>106</v>
       </c>
@@ -28361,7 +28339,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>107</v>
       </c>
@@ -28753,7 +28731,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="37" t="s">
         <v>1331</v>
       </c>
@@ -28767,7 +28745,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1344</v>
       </c>
@@ -28784,7 +28762,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>1345</v>
       </c>
@@ -28801,7 +28779,7 @@
         <v>2.5500000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>1346</v>
       </c>
@@ -28818,7 +28796,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>1347</v>
       </c>
@@ -28835,7 +28813,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>1348</v>
       </c>
@@ -28852,7 +28830,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>1349</v>
       </c>
@@ -28869,7 +28847,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>1350</v>
       </c>
@@ -28886,7 +28864,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>1351</v>
       </c>
@@ -28903,7 +28881,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>1352</v>
       </c>
@@ -28920,7 +28898,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>1353</v>
       </c>
@@ -28937,7 +28915,7 @@
         <v>3.7800000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>1354</v>
       </c>
@@ -28954,7 +28932,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>1355</v>
       </c>
@@ -28971,7 +28949,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>1356</v>
       </c>
@@ -28988,7 +28966,7 @@
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>1357</v>
       </c>
@@ -29005,7 +28983,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>1358</v>
       </c>
@@ -29022,7 +29000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>1359</v>
       </c>
@@ -29039,7 +29017,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>1360</v>
       </c>
@@ -29056,7 +29034,7 @@
         <v>11.700000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>1361</v>
       </c>
@@ -29073,7 +29051,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>1362</v>
       </c>
@@ -29090,7 +29068,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>1363</v>
       </c>
@@ -29107,7 +29085,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>1364</v>
       </c>
@@ -29124,7 +29102,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>1365</v>
       </c>
@@ -29141,7 +29119,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>1366</v>
       </c>
@@ -29158,7 +29136,7 @@
         <v>12.950000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>1367</v>
       </c>
@@ -29175,7 +29153,7 @@
         <v>13.15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>1368</v>
       </c>
@@ -29192,7 +29170,7 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>1369</v>
       </c>
@@ -29209,7 +29187,7 @@
         <v>14.450000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>1370</v>
       </c>
@@ -32015,7 +31993,7 @@
         <v>3.7626517736309331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>140</v>
       </c>
@@ -32035,7 +32013,7 @@
         <v>9.3012606925040409</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>141</v>
       </c>
@@ -32055,7 +32033,7 @@
         <v>10.988990111048833</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>142</v>
       </c>
@@ -32075,7 +32053,7 @@
         <v>6.2234820775420605</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>143</v>
       </c>
@@ -32095,7 +32073,7 @@
         <v>13.342575592940911</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>144</v>
       </c>
@@ -32115,7 +32093,7 @@
         <v>17.234782114544959</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>145</v>
       </c>
@@ -32135,7 +32113,7 @@
         <v>12.718029301659195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>146</v>
       </c>
@@ -32155,7 +32133,7 @@
         <v>14.948313000291588</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>147</v>
       </c>
@@ -32175,7 +32153,7 @@
         <v>15.459917018596721</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>148</v>
       </c>
@@ -32195,7 +32173,7 @@
         <v>12.360962270426072</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>149</v>
       </c>
@@ -32215,7 +32193,7 @@
         <v>11.24274752011978</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>150</v>
       </c>
@@ -35631,7 +35609,7 @@
         <v>111.78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>319</v>
       </c>
@@ -35651,7 +35629,7 @@
         <v>109.87</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>320</v>
       </c>
@@ -35671,7 +35649,7 @@
         <v>108.14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>321</v>
       </c>
@@ -35691,7 +35669,7 @@
         <v>103.47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>322</v>
       </c>
@@ -35711,7 +35689,7 @@
         <v>99.03</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>323</v>
       </c>
@@ -35731,7 +35709,7 @@
         <v>97.21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>324</v>
       </c>
@@ -35751,7 +35729,7 @@
         <v>92.46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>325</v>
       </c>
@@ -35771,7 +35749,7 @@
         <v>91.23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>326</v>
       </c>
@@ -35791,7 +35769,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>327</v>
       </c>
@@ -35811,7 +35789,7 @@
         <v>99.88</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>328</v>
       </c>
@@ -35831,7 +35809,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>329</v>
       </c>
@@ -38787,7 +38765,7 @@
         <v>0.38140000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>475</v>
       </c>
@@ -38807,7 +38785,7 @@
         <v>0.37869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>476</v>
       </c>
@@ -38827,7 +38805,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>477</v>
       </c>
@@ -38847,7 +38825,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>478</v>
       </c>
@@ -38867,7 +38845,7 @@
         <v>0.37259999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>479</v>
       </c>
@@ -38887,7 +38865,7 @@
         <v>0.36990000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>480</v>
       </c>
@@ -38907,7 +38885,7 @@
         <v>0.36749999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>481</v>
       </c>
@@ -38927,7 +38905,7 @@
         <v>0.36890000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>482</v>
       </c>
@@ -38947,7 +38925,7 @@
         <v>0.36859999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>483</v>
       </c>
@@ -38967,7 +38945,7 @@
         <v>0.36840000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>484</v>
       </c>
@@ -38987,7 +38965,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>485</v>
       </c>
